--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dll1</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll1</t>
-  </si>
-  <si>
-    <t>Notch1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H2">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I2">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J2">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>891.5202493576169</v>
+        <v>977.5861022505516</v>
       </c>
       <c r="R2">
-        <v>8023.682244218551</v>
+        <v>8798.274920254964</v>
       </c>
       <c r="S2">
-        <v>0.4611462493140609</v>
+        <v>0.3017687141947945</v>
       </c>
       <c r="T2">
-        <v>0.461146249314061</v>
+        <v>0.3017687141947945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H3">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I3">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J3">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>117.8784038223167</v>
+        <v>149.0912773692367</v>
       </c>
       <c r="R3">
-        <v>1060.90563440085</v>
+        <v>1341.82149632313</v>
       </c>
       <c r="S3">
-        <v>0.06097358286248461</v>
+        <v>0.0460226295830083</v>
       </c>
       <c r="T3">
-        <v>0.06097358286248462</v>
+        <v>0.0460226295830083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H4">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I4">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J4">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>272.226388068635</v>
+        <v>704.9809193572452</v>
       </c>
       <c r="R4">
-        <v>2450.037492617715</v>
+        <v>6344.828274215207</v>
       </c>
       <c r="S4">
-        <v>0.1408113589260815</v>
+        <v>0.2176188727279751</v>
       </c>
       <c r="T4">
-        <v>0.1408113589260815</v>
+        <v>0.2176188727279751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H5">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I5">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J5">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>141.1735756062411</v>
+        <v>178.5340934685519</v>
       </c>
       <c r="R5">
-        <v>1270.56218045617</v>
+        <v>1606.806841216967</v>
       </c>
       <c r="S5">
-        <v>0.07302320383634804</v>
+        <v>0.05511126201764472</v>
       </c>
       <c r="T5">
-        <v>0.07302320383634807</v>
+        <v>0.05511126201764472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.675882</v>
       </c>
       <c r="I6">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J6">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>37.98855241332667</v>
+        <v>32.93506785085977</v>
       </c>
       <c r="R6">
-        <v>341.89697171994</v>
+        <v>296.415610657738</v>
       </c>
       <c r="S6">
-        <v>0.01964989407127765</v>
+        <v>0.01016664726962843</v>
       </c>
       <c r="T6">
-        <v>0.01964989407127765</v>
+        <v>0.01016664726962843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.675882</v>
       </c>
       <c r="I7">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J7">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
         <v>5.022914426486666</v>
@@ -883,10 +883,10 @@
         <v>45.20622983838</v>
       </c>
       <c r="S7">
-        <v>0.002598144181322653</v>
+        <v>0.001550511432703328</v>
       </c>
       <c r="T7">
-        <v>0.002598144181322654</v>
+        <v>0.001550511432703328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.675882</v>
       </c>
       <c r="I8">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J8">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>11.599833451778</v>
+        <v>23.75094568052844</v>
       </c>
       <c r="R8">
-        <v>104.398501066002</v>
+        <v>213.758511124756</v>
       </c>
       <c r="S8">
-        <v>0.006000110140862835</v>
+        <v>0.007331622577717994</v>
       </c>
       <c r="T8">
-        <v>0.006000110140862836</v>
+        <v>0.007331622577717995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>1.675882</v>
       </c>
       <c r="I9">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J9">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>6.015544548941777</v>
+        <v>6.014848685493554</v>
       </c>
       <c r="R9">
-        <v>54.139900940476</v>
+        <v>54.13363816944199</v>
       </c>
       <c r="S9">
-        <v>0.003111590351789516</v>
+        <v>0.001856709245067028</v>
       </c>
       <c r="T9">
-        <v>0.003111590351789518</v>
+        <v>0.001856709245067028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H10">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I10">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J10">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>275.5565139512034</v>
+        <v>564.9055251626929</v>
       </c>
       <c r="R10">
-        <v>2480.00862556083</v>
+        <v>5084.149726464238</v>
       </c>
       <c r="S10">
-        <v>0.1425338941815584</v>
+        <v>0.1743793345439663</v>
       </c>
       <c r="T10">
-        <v>0.1425338941815585</v>
+        <v>0.1743793345439663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H11">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I11">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J11">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>36.43457571582333</v>
+        <v>86.15352258543</v>
       </c>
       <c r="R11">
-        <v>327.91118144241</v>
+        <v>775.38170326887</v>
       </c>
       <c r="S11">
-        <v>0.01884608672523984</v>
+        <v>0.02659452469107841</v>
       </c>
       <c r="T11">
-        <v>0.01884608672523985</v>
+        <v>0.02659452469107841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H12">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I12">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J12">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>84.14139169107099</v>
+        <v>407.378557819466</v>
       </c>
       <c r="R12">
-        <v>757.272525219639</v>
+        <v>3666.407020375194</v>
       </c>
       <c r="S12">
-        <v>0.04352283329331107</v>
+        <v>0.1257527120124734</v>
       </c>
       <c r="T12">
-        <v>0.04352283329331109</v>
+        <v>0.1257527120124734</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H13">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I13">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J13">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>43.63478943312023</v>
+        <v>103.167276619537</v>
       </c>
       <c r="R13">
-        <v>392.713104898082</v>
+        <v>928.5054895758331</v>
       </c>
       <c r="S13">
-        <v>0.02257045703806626</v>
+        <v>0.03184645970394245</v>
       </c>
       <c r="T13">
-        <v>0.02257045703806626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H14">
-        <v>0.278564</v>
-      </c>
-      <c r="I14">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J14">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>68.00339000000001</v>
-      </c>
-      <c r="N14">
-        <v>204.01017</v>
-      </c>
-      <c r="O14">
-        <v>0.6265962299909886</v>
-      </c>
-      <c r="P14">
-        <v>0.6265962299909886</v>
-      </c>
-      <c r="Q14">
-        <v>6.314432110653334</v>
-      </c>
-      <c r="R14">
-        <v>56.82988899588</v>
-      </c>
-      <c r="S14">
-        <v>0.003266192424091546</v>
-      </c>
-      <c r="T14">
-        <v>0.003266192424091546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H15">
-        <v>0.278564</v>
-      </c>
-      <c r="I15">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J15">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.991529999999999</v>
-      </c>
-      <c r="N15">
-        <v>26.97459</v>
-      </c>
-      <c r="O15">
-        <v>0.08284967558015671</v>
-      </c>
-      <c r="P15">
-        <v>0.08284967558015671</v>
-      </c>
-      <c r="Q15">
-        <v>0.8349055209733331</v>
-      </c>
-      <c r="R15">
-        <v>7.514149688759999</v>
-      </c>
-      <c r="S15">
-        <v>0.000431861811109591</v>
-      </c>
-      <c r="T15">
-        <v>0.0004318618111095911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H16">
-        <v>0.278564</v>
-      </c>
-      <c r="I16">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J16">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>20.764887</v>
-      </c>
-      <c r="N16">
-        <v>62.294661</v>
-      </c>
-      <c r="O16">
-        <v>0.1913316367079478</v>
-      </c>
-      <c r="P16">
-        <v>0.1913316367079478</v>
-      </c>
-      <c r="Q16">
-        <v>1.928116660756</v>
-      </c>
-      <c r="R16">
-        <v>17.353049946804</v>
-      </c>
-      <c r="S16">
-        <v>0.0009973343476923284</v>
-      </c>
-      <c r="T16">
-        <v>0.0009973343476923288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H17">
-        <v>0.278564</v>
-      </c>
-      <c r="I17">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J17">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>10.76843933333333</v>
-      </c>
-      <c r="N17">
-        <v>32.305318</v>
-      </c>
-      <c r="O17">
-        <v>0.09922245772090686</v>
-      </c>
-      <c r="P17">
-        <v>0.09922245772090688</v>
-      </c>
-      <c r="Q17">
-        <v>0.9998998448168888</v>
-      </c>
-      <c r="R17">
-        <v>8.999098603352</v>
-      </c>
-      <c r="S17">
-        <v>0.0005172064947030249</v>
-      </c>
-      <c r="T17">
-        <v>0.0005172064947030252</v>
+        <v>0.03184645970394246</v>
       </c>
     </row>
   </sheetData>
